--- a/shinyapp/data/mentalhealthres.xlsx
+++ b/shinyapp/data/mentalhealthres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4AE2-43B8-1944-8566-EA51E7C80281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85A08F-D234-C645-AF3F-450DB2D43926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Family Engagement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="393">
   <si>
     <t>Resources</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger Management </t>
-  </si>
-  <si>
     <t>Family Counseling by Therpeutic Alliance</t>
   </si>
   <si>
@@ -968,9 +965,6 @@
     <t>24419 Millstream Drive, Aldie, VA 20105</t>
   </si>
   <si>
-    <t>Grief Support</t>
-  </si>
-  <si>
     <t>Individual or Family grief counseling</t>
   </si>
   <si>
@@ -992,9 +986,6 @@
     <t>Individual, Couple, Child counseling</t>
   </si>
   <si>
-    <t>Behavioral Therapy Services</t>
-  </si>
-  <si>
     <t>Individual, Family</t>
   </si>
   <si>
@@ -1025,18 +1016,9 @@
     <t>795 Center Street, Herndon, VA 20170</t>
   </si>
   <si>
-    <t>Domestic Violence Program</t>
-  </si>
-  <si>
     <t>Crisis Counseling, Safety planning, Legal representation, Court advocacy, Translation services, Financial assistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Supportive Tools for Advancement and Restoration </t>
-  </si>
-  <si>
-    <t>By Your Side Ministries seeks to aid in the development of life skills in single, young adult mothers (ages 16 -30) in under-served communities via mentoring, workshops and seminars in the areas of education &amp; career planning, money management, social skills development and wellness.</t>
-  </si>
-  <si>
     <t>Meridian Recovery Model</t>
   </si>
   <si>
@@ -1046,9 +1028,6 @@
     <t>26 Fairfax Street Southeast, Leesburg, VA 20175</t>
   </si>
   <si>
-    <t>Offender Services</t>
-  </si>
-  <si>
     <t>Employment assistance, help obtainign uniforms, Emrgency assistance, Counseling to help deal with emotional and cognitive effects of incarceration</t>
   </si>
   <si>
@@ -1064,9 +1043,6 @@
     <t>5250 Cherokee Avenue, Lincolnia, VA 22312</t>
   </si>
   <si>
-    <t>Adoption and Mental Health Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Free 24/7 Counseling for Expectant parents, Mental health counseling for children, Parents and Families, Foster care adoption and domestic Infant adoption </t>
   </si>
   <si>
@@ -1094,9 +1070,6 @@
     <t>44180 Riverside Pkwy, Leesburg, VA 20176</t>
   </si>
   <si>
-    <t>Supporting Successful Reentry</t>
-  </si>
-  <si>
     <t>Prison Fellowship</t>
   </si>
   <si>
@@ -1191,6 +1164,87 @@
   </si>
   <si>
     <t xml:space="preserve">4-H </t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/family-counseling-services/</t>
+  </si>
+  <si>
+    <t>https://www.ccda.net/programs_leesburg_regional_ofc.php</t>
+  </si>
+  <si>
+    <t>https://prsinc.org/recovery-academies/</t>
+  </si>
+  <si>
+    <t>https://www.dewberry.com/projects/capital-caring-health-adler-center-for-caring-on-the-van-metre-campus</t>
+  </si>
+  <si>
+    <t>Capital Caring Adler Center</t>
+  </si>
+  <si>
+    <t>https://wind-opt.com/</t>
+  </si>
+  <si>
+    <t>https://yourfamilymed.com/contact/lansdowne/</t>
+  </si>
+  <si>
+    <t>https://ipscenter.org/</t>
+  </si>
+  <si>
+    <t>http://www.timetofly.org/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/our-services/inova-behavioral-health-services</t>
+  </si>
+  <si>
+    <t>Health Connect America</t>
+  </si>
+  <si>
+    <t>https://www.healthconnectamerica.com/locations/hca-sterling-va/</t>
+  </si>
+  <si>
+    <t>https://www.faithus.org/programs/domestic-violence-program/</t>
+  </si>
+  <si>
+    <t>FAITH</t>
+  </si>
+  <si>
+    <t>By Your Side Ministries</t>
+  </si>
+  <si>
+    <t>Seeks to aid in the development of life skills in single, young adult mothers (ages 16 -30),  in under-served communities via mentoring, workshops and seminars in the areas of education &amp; career planning, money management, social skills development and wellness.</t>
+  </si>
+  <si>
+    <t>https://meridianbhs.org/recovery-model</t>
+  </si>
+  <si>
+    <t>Connections Health Center</t>
+  </si>
+  <si>
+    <t>http://www.connectionshealthcenter.com/mental-health-services-our-services</t>
+  </si>
+  <si>
+    <t>Adoptions Together</t>
+  </si>
+  <si>
+    <t>https://www.adoptionstogether.org/</t>
+  </si>
+  <si>
+    <t>https://www.safeharbor1.com/</t>
+  </si>
+  <si>
+    <t>https://adoptionsupport.org/</t>
+  </si>
+  <si>
+    <t>https://fcsva.org/</t>
+  </si>
+  <si>
+    <t>https://www.prisonfellowship.org/</t>
+  </si>
+  <si>
+    <t>Supporting successful reentry and building relationships</t>
+  </si>
+  <si>
+    <t>https://www.findhelp.org/by-your-side-ministries-inc--sterling-va--supportive-tools-for-advancement-and-restoration-%2528star%2529/5123958760275968?postal=20163</t>
   </si>
 </sst>
 </file>
@@ -4205,63 +4259,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E5B34C-2297-4E45-9112-F6D1152EA394}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>39.001556999999998</v>
+      </c>
+      <c r="D2">
+        <v>-77.448892999999998</v>
+      </c>
+      <c r="E2" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>39.001556999999998</v>
-      </c>
-      <c r="E2">
-        <v>-77.448892999999998</v>
       </c>
       <c r="F2" t="s">
         <v>289</v>
@@ -4270,533 +4327,596 @@
         <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>39.112384499999997</v>
+      </c>
+      <c r="D3">
+        <v>-77.558838699999995</v>
+      </c>
+      <c r="E3" t="s">
         <v>292</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>39.112384499999997</v>
-      </c>
-      <c r="E3">
-        <v>-77.558838699999995</v>
       </c>
       <c r="F3" t="s">
         <v>293</v>
       </c>
-      <c r="G3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>38.867682000000002</v>
+      </c>
+      <c r="D4" s="28">
+        <v>-77.234896500000005</v>
+      </c>
+      <c r="E4" t="s">
         <v>295</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>38.867682000000002</v>
-      </c>
-      <c r="E4" s="28">
-        <v>-77.234896500000005</v>
       </c>
       <c r="F4" t="s">
         <v>296</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>38.937703999999997</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-77.547101999999995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
         <v>298</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>38.937703999999997</v>
-      </c>
-      <c r="E5" s="28">
-        <v>-77.547101999999995</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>39.001556999999998</v>
+      </c>
+      <c r="D6">
+        <v>-77.448892999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" t="s">
         <v>191</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>39.001556999999998</v>
-      </c>
-      <c r="E6">
-        <v>-77.448892999999998</v>
-      </c>
-      <c r="F6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>39.015860500000002</v>
+      </c>
+      <c r="D7">
+        <v>-77.377323099999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" t="s">
         <v>276</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>39.015860500000002</v>
-      </c>
-      <c r="E7">
-        <v>-77.377323099999998</v>
-      </c>
-      <c r="F7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>264</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>39.079411499999999</v>
+      </c>
+      <c r="D8">
+        <v>-77.477527100000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
         <v>303</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>39.079411499999999</v>
-      </c>
-      <c r="E8">
-        <v>-77.477527100000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>38.980244999999996</v>
+      </c>
+      <c r="D9">
+        <v>-77.4392</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" t="s">
         <v>266</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>38.980244999999996</v>
-      </c>
-      <c r="E9">
-        <v>-77.4392</v>
-      </c>
-      <c r="F9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>264</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>39.0373041</v>
+      </c>
+      <c r="D10">
+        <v>-77.412748199999996</v>
+      </c>
+      <c r="E10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" t="s">
         <v>270</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>39.0373041</v>
-      </c>
-      <c r="E10">
-        <v>-77.412748199999996</v>
-      </c>
-      <c r="F10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>264</v>
       </c>
-      <c r="B11" t="s">
-        <v>311</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>38.925481499999997</v>
       </c>
       <c r="D11">
-        <v>38.925481499999997</v>
-      </c>
-      <c r="E11">
         <v>-77.203404300000003</v>
       </c>
+      <c r="E11" t="s">
+        <v>309</v>
+      </c>
       <c r="F11" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>264</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>38.964248599999998</v>
+      </c>
+      <c r="D12">
+        <v>-77.401802900000007</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" t="s">
         <v>314</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>38.964248599999998</v>
-      </c>
-      <c r="E12">
-        <v>-77.401802900000007</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" t="s">
-        <v>316</v>
-      </c>
       <c r="H12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="B13" t="s">
-        <v>318</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>38.972135399999999</v>
       </c>
       <c r="D13">
-        <v>38.972135399999999</v>
-      </c>
-      <c r="E13">
         <v>-77.385575399999993</v>
       </c>
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
       <c r="F13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>264</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>39.040126000000001</v>
+      </c>
+      <c r="D14">
+        <v>-77.347973999999994</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" t="s">
         <v>274</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>39.040126000000001</v>
-      </c>
-      <c r="E14">
-        <v>-77.347973999999994</v>
-      </c>
-      <c r="F14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>264</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>39.030577999999998</v>
+      </c>
+      <c r="D15">
+        <v>-77.380240000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" t="s">
         <v>278</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>39.030577999999998</v>
-      </c>
-      <c r="E15">
-        <v>-77.380240000000001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14" customHeight="1">
       <c r="A16" t="s">
         <v>264</v>
       </c>
-      <c r="B16" t="s">
-        <v>325</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>39.108415700000002</v>
       </c>
       <c r="D16">
-        <v>39.108415700000002</v>
-      </c>
-      <c r="E16">
         <v>-77.565303900000004</v>
       </c>
+      <c r="E16" t="s">
+        <v>383</v>
+      </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13" customHeight="1">
       <c r="A17" t="s">
         <v>264</v>
       </c>
-      <c r="B17" t="s">
-        <v>299</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>38.937703999999997</v>
       </c>
       <c r="D17">
-        <v>38.937703999999997</v>
-      </c>
-      <c r="E17">
         <v>-77.547101999999995</v>
       </c>
+      <c r="E17" t="s">
+        <v>370</v>
+      </c>
       <c r="F17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>38.810130999999998</v>
+      </c>
+      <c r="D18">
+        <v>-77.158857999999995</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>39.029001200000003</v>
+      </c>
+      <c r="D19">
+        <v>-77.407484600000004</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>39.026485443115199</v>
+      </c>
+      <c r="D20">
+        <v>-77.389587402343693</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="F20" t="s">
         <v>330</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>38.894061000000001</v>
+      </c>
+      <c r="D21">
+        <v>-77.466695999999999</v>
+      </c>
+      <c r="E21" t="s">
         <v>331</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>38.810130999999998</v>
-      </c>
-      <c r="E18">
-        <v>-77.158857999999995</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>332</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>39.073107800000002</v>
+      </c>
+      <c r="D22">
+        <v>-77.471795599999993</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" t="s">
         <v>333</v>
       </c>
-      <c r="H18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>39.029001200000003</v>
-      </c>
-      <c r="E19">
-        <v>-77.407484600000004</v>
-      </c>
-      <c r="F19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>39.026485443115199</v>
-      </c>
-      <c r="E20">
-        <v>-77.389587402343693</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>38.894061000000001</v>
-      </c>
-      <c r="E21">
-        <v>-77.466695999999999</v>
-      </c>
-      <c r="F21" t="s">
-        <v>339</v>
-      </c>
-      <c r="G21" t="s">
-        <v>340</v>
-      </c>
-      <c r="H21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>39.073107800000002</v>
-      </c>
-      <c r="E22">
-        <v>-77.471795599999993</v>
-      </c>
-      <c r="F22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>291</v>
+      <c r="I22" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{C7E84F64-66E8-4D59-9ABA-A47A301B4FF5}"/>
-    <hyperlink ref="F20" r:id="rId2" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{1E77340E-E64C-44CA-B98B-B05D67E42FBF}"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{C7E84F64-66E8-4D59-9ABA-A47A301B4FF5}"/>
+    <hyperlink ref="E20" r:id="rId2" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{1E77340E-E64C-44CA-B98B-B05D67E42FBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4848,10 +4968,10 @@
     </row>
     <row r="2" spans="1:8" ht="32">
       <c r="A2" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4863,18 +4983,18 @@
         <v>-77.384056091308594</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4886,18 +5006,18 @@
         <v>-77.368133799999995</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16">
       <c r="A4" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4909,15 +5029,15 @@
         <v>-77.346993900000001</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32">
       <c r="A5" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4929,18 +5049,18 @@
         <v>-77.552453799999995</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32">
       <c r="A6" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4952,18 +5072,18 @@
         <v>-77.520797729492102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48">
       <c r="A7" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4975,18 +5095,18 @@
         <v>-77.310793799999999</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32">
       <c r="A8" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4998,18 +5118,18 @@
         <v>-77.149856567382798</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32">
       <c r="A9" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D9">
         <v>38.9978257</v>
@@ -5018,10 +5138,10 @@
         <v>-77.406757200000001</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5030,7 +5150,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6"/>
     </row>

--- a/shinyapp/data/mentalhealthres.xlsx
+++ b/shinyapp/data/mentalhealthres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC85A08F-D234-C645-AF3F-450DB2D43926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEDAAF2-2BA5-0E47-95FA-C4BBE425B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Family Engagement" sheetId="1" r:id="rId1"/>

--- a/shinyapp/data/mentalhealthres.xlsx
+++ b/shinyapp/data/mentalhealthres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4AE2-43B8-1944-8566-EA51E7C80281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEDAAF2-2BA5-0E47-95FA-C4BBE425B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Family Engagement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="393">
   <si>
     <t>Resources</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Anger Management </t>
-  </si>
-  <si>
     <t>Family Counseling by Therpeutic Alliance</t>
   </si>
   <si>
@@ -968,9 +965,6 @@
     <t>24419 Millstream Drive, Aldie, VA 20105</t>
   </si>
   <si>
-    <t>Grief Support</t>
-  </si>
-  <si>
     <t>Individual or Family grief counseling</t>
   </si>
   <si>
@@ -992,9 +986,6 @@
     <t>Individual, Couple, Child counseling</t>
   </si>
   <si>
-    <t>Behavioral Therapy Services</t>
-  </si>
-  <si>
     <t>Individual, Family</t>
   </si>
   <si>
@@ -1025,18 +1016,9 @@
     <t>795 Center Street, Herndon, VA 20170</t>
   </si>
   <si>
-    <t>Domestic Violence Program</t>
-  </si>
-  <si>
     <t>Crisis Counseling, Safety planning, Legal representation, Court advocacy, Translation services, Financial assistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Supportive Tools for Advancement and Restoration </t>
-  </si>
-  <si>
-    <t>By Your Side Ministries seeks to aid in the development of life skills in single, young adult mothers (ages 16 -30) in under-served communities via mentoring, workshops and seminars in the areas of education &amp; career planning, money management, social skills development and wellness.</t>
-  </si>
-  <si>
     <t>Meridian Recovery Model</t>
   </si>
   <si>
@@ -1046,9 +1028,6 @@
     <t>26 Fairfax Street Southeast, Leesburg, VA 20175</t>
   </si>
   <si>
-    <t>Offender Services</t>
-  </si>
-  <si>
     <t>Employment assistance, help obtainign uniforms, Emrgency assistance, Counseling to help deal with emotional and cognitive effects of incarceration</t>
   </si>
   <si>
@@ -1064,9 +1043,6 @@
     <t>5250 Cherokee Avenue, Lincolnia, VA 22312</t>
   </si>
   <si>
-    <t>Adoption and Mental Health Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Free 24/7 Counseling for Expectant parents, Mental health counseling for children, Parents and Families, Foster care adoption and domestic Infant adoption </t>
   </si>
   <si>
@@ -1094,9 +1070,6 @@
     <t>44180 Riverside Pkwy, Leesburg, VA 20176</t>
   </si>
   <si>
-    <t>Supporting Successful Reentry</t>
-  </si>
-  <si>
     <t>Prison Fellowship</t>
   </si>
   <si>
@@ -1191,6 +1164,87 @@
   </si>
   <si>
     <t xml:space="preserve">4-H </t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/family-counseling-services/</t>
+  </si>
+  <si>
+    <t>https://www.ccda.net/programs_leesburg_regional_ofc.php</t>
+  </si>
+  <si>
+    <t>https://prsinc.org/recovery-academies/</t>
+  </si>
+  <si>
+    <t>https://www.dewberry.com/projects/capital-caring-health-adler-center-for-caring-on-the-van-metre-campus</t>
+  </si>
+  <si>
+    <t>Capital Caring Adler Center</t>
+  </si>
+  <si>
+    <t>https://wind-opt.com/</t>
+  </si>
+  <si>
+    <t>https://yourfamilymed.com/contact/lansdowne/</t>
+  </si>
+  <si>
+    <t>https://ipscenter.org/</t>
+  </si>
+  <si>
+    <t>http://www.timetofly.org/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/our-services/inova-behavioral-health-services</t>
+  </si>
+  <si>
+    <t>Health Connect America</t>
+  </si>
+  <si>
+    <t>https://www.healthconnectamerica.com/locations/hca-sterling-va/</t>
+  </si>
+  <si>
+    <t>https://www.faithus.org/programs/domestic-violence-program/</t>
+  </si>
+  <si>
+    <t>FAITH</t>
+  </si>
+  <si>
+    <t>By Your Side Ministries</t>
+  </si>
+  <si>
+    <t>Seeks to aid in the development of life skills in single, young adult mothers (ages 16 -30),  in under-served communities via mentoring, workshops and seminars in the areas of education &amp; career planning, money management, social skills development and wellness.</t>
+  </si>
+  <si>
+    <t>https://meridianbhs.org/recovery-model</t>
+  </si>
+  <si>
+    <t>Connections Health Center</t>
+  </si>
+  <si>
+    <t>http://www.connectionshealthcenter.com/mental-health-services-our-services</t>
+  </si>
+  <si>
+    <t>Adoptions Together</t>
+  </si>
+  <si>
+    <t>https://www.adoptionstogether.org/</t>
+  </si>
+  <si>
+    <t>https://www.safeharbor1.com/</t>
+  </si>
+  <si>
+    <t>https://adoptionsupport.org/</t>
+  </si>
+  <si>
+    <t>https://fcsva.org/</t>
+  </si>
+  <si>
+    <t>https://www.prisonfellowship.org/</t>
+  </si>
+  <si>
+    <t>Supporting successful reentry and building relationships</t>
+  </si>
+  <si>
+    <t>https://www.findhelp.org/by-your-side-ministries-inc--sterling-va--supportive-tools-for-advancement-and-restoration-%2528star%2529/5123958760275968?postal=20163</t>
   </si>
 </sst>
 </file>
@@ -4205,63 +4259,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E5B34C-2297-4E45-9112-F6D1152EA394}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>39.001556999999998</v>
+      </c>
+      <c r="D2">
+        <v>-77.448892999999998</v>
+      </c>
+      <c r="E2" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>39.001556999999998</v>
-      </c>
-      <c r="E2">
-        <v>-77.448892999999998</v>
       </c>
       <c r="F2" t="s">
         <v>289</v>
@@ -4270,533 +4327,596 @@
         <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>39.112384499999997</v>
+      </c>
+      <c r="D3">
+        <v>-77.558838699999995</v>
+      </c>
+      <c r="E3" t="s">
         <v>292</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>39.112384499999997</v>
-      </c>
-      <c r="E3">
-        <v>-77.558838699999995</v>
       </c>
       <c r="F3" t="s">
         <v>293</v>
       </c>
-      <c r="G3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>38.867682000000002</v>
+      </c>
+      <c r="D4" s="28">
+        <v>-77.234896500000005</v>
+      </c>
+      <c r="E4" t="s">
         <v>295</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>38.867682000000002</v>
-      </c>
-      <c r="E4" s="28">
-        <v>-77.234896500000005</v>
       </c>
       <c r="F4" t="s">
         <v>296</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>38.937703999999997</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-77.547101999999995</v>
+      </c>
+      <c r="E5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
         <v>298</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>38.937703999999997</v>
-      </c>
-      <c r="E5" s="28">
-        <v>-77.547101999999995</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>39.001556999999998</v>
+      </c>
+      <c r="D6">
+        <v>-77.448892999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" t="s">
         <v>191</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>39.001556999999998</v>
-      </c>
-      <c r="E6">
-        <v>-77.448892999999998</v>
-      </c>
-      <c r="F6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>39.015860500000002</v>
+      </c>
+      <c r="D7">
+        <v>-77.377323099999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" t="s">
         <v>276</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>39.015860500000002</v>
-      </c>
-      <c r="E7">
-        <v>-77.377323099999998</v>
-      </c>
-      <c r="F7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>264</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>39.079411499999999</v>
+      </c>
+      <c r="D8">
+        <v>-77.477527100000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
         <v>303</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>39.079411499999999</v>
-      </c>
-      <c r="E8">
-        <v>-77.477527100000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>38.980244999999996</v>
+      </c>
+      <c r="D9">
+        <v>-77.4392</v>
+      </c>
+      <c r="E9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" t="s">
         <v>266</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>38.980244999999996</v>
-      </c>
-      <c r="E9">
-        <v>-77.4392</v>
-      </c>
-      <c r="F9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>264</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>39.0373041</v>
+      </c>
+      <c r="D10">
+        <v>-77.412748199999996</v>
+      </c>
+      <c r="E10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" t="s">
         <v>270</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>39.0373041</v>
-      </c>
-      <c r="E10">
-        <v>-77.412748199999996</v>
-      </c>
-      <c r="F10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>264</v>
       </c>
-      <c r="B11" t="s">
-        <v>311</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>38.925481499999997</v>
       </c>
       <c r="D11">
-        <v>38.925481499999997</v>
-      </c>
-      <c r="E11">
         <v>-77.203404300000003</v>
       </c>
+      <c r="E11" t="s">
+        <v>309</v>
+      </c>
       <c r="F11" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>264</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>38.964248599999998</v>
+      </c>
+      <c r="D12">
+        <v>-77.401802900000007</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" t="s">
         <v>314</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>38.964248599999998</v>
-      </c>
-      <c r="E12">
-        <v>-77.401802900000007</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" t="s">
-        <v>316</v>
-      </c>
       <c r="H12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="B13" t="s">
-        <v>318</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>38.972135399999999</v>
       </c>
       <c r="D13">
-        <v>38.972135399999999</v>
-      </c>
-      <c r="E13">
         <v>-77.385575399999993</v>
       </c>
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
       <c r="F13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>264</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>39.040126000000001</v>
+      </c>
+      <c r="D14">
+        <v>-77.347973999999994</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" t="s">
         <v>274</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>39.040126000000001</v>
-      </c>
-      <c r="E14">
-        <v>-77.347973999999994</v>
-      </c>
-      <c r="F14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>264</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>39.030577999999998</v>
+      </c>
+      <c r="D15">
+        <v>-77.380240000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" t="s">
         <v>278</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>39.030577999999998</v>
-      </c>
-      <c r="E15">
-        <v>-77.380240000000001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14" customHeight="1">
       <c r="A16" t="s">
         <v>264</v>
       </c>
-      <c r="B16" t="s">
-        <v>325</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>39.108415700000002</v>
       </c>
       <c r="D16">
-        <v>39.108415700000002</v>
-      </c>
-      <c r="E16">
         <v>-77.565303900000004</v>
       </c>
+      <c r="E16" t="s">
+        <v>383</v>
+      </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13" customHeight="1">
       <c r="A17" t="s">
         <v>264</v>
       </c>
-      <c r="B17" t="s">
-        <v>299</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>38.937703999999997</v>
       </c>
       <c r="D17">
-        <v>38.937703999999997</v>
-      </c>
-      <c r="E17">
         <v>-77.547101999999995</v>
       </c>
+      <c r="E17" t="s">
+        <v>370</v>
+      </c>
       <c r="F17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>38.810130999999998</v>
+      </c>
+      <c r="D18">
+        <v>-77.158857999999995</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>39.029001200000003</v>
+      </c>
+      <c r="D19">
+        <v>-77.407484600000004</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>39.026485443115199</v>
+      </c>
+      <c r="D20">
+        <v>-77.389587402343693</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="F20" t="s">
         <v>330</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>38.894061000000001</v>
+      </c>
+      <c r="D21">
+        <v>-77.466695999999999</v>
+      </c>
+      <c r="E21" t="s">
         <v>331</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>38.810130999999998</v>
-      </c>
-      <c r="E18">
-        <v>-77.158857999999995</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>332</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>39.073107800000002</v>
+      </c>
+      <c r="D22">
+        <v>-77.471795599999993</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" t="s">
         <v>333</v>
       </c>
-      <c r="H18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>39.029001200000003</v>
-      </c>
-      <c r="E19">
-        <v>-77.407484600000004</v>
-      </c>
-      <c r="F19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>39.026485443115199</v>
-      </c>
-      <c r="E20">
-        <v>-77.389587402343693</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>38.894061000000001</v>
-      </c>
-      <c r="E21">
-        <v>-77.466695999999999</v>
-      </c>
-      <c r="F21" t="s">
-        <v>339</v>
-      </c>
-      <c r="G21" t="s">
-        <v>340</v>
-      </c>
-      <c r="H21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>39.073107800000002</v>
-      </c>
-      <c r="E22">
-        <v>-77.471795599999993</v>
-      </c>
-      <c r="F22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>291</v>
+      <c r="I22" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{C7E84F64-66E8-4D59-9ABA-A47A301B4FF5}"/>
-    <hyperlink ref="F20" r:id="rId2" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{1E77340E-E64C-44CA-B98B-B05D67E42FBF}"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{C7E84F64-66E8-4D59-9ABA-A47A301B4FF5}"/>
+    <hyperlink ref="E20" r:id="rId2" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{1E77340E-E64C-44CA-B98B-B05D67E42FBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4848,10 +4968,10 @@
     </row>
     <row r="2" spans="1:8" ht="32">
       <c r="A2" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4863,18 +4983,18 @@
         <v>-77.384056091308594</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4886,18 +5006,18 @@
         <v>-77.368133799999995</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16">
       <c r="A4" s="6" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4909,15 +5029,15 @@
         <v>-77.346993900000001</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32">
       <c r="A5" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4929,18 +5049,18 @@
         <v>-77.552453799999995</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32">
       <c r="A6" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4952,18 +5072,18 @@
         <v>-77.520797729492102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48">
       <c r="A7" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4975,18 +5095,18 @@
         <v>-77.310793799999999</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32">
       <c r="A8" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4998,18 +5118,18 @@
         <v>-77.149856567382798</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32">
       <c r="A9" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D9">
         <v>38.9978257</v>
@@ -5018,10 +5138,10 @@
         <v>-77.406757200000001</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5030,7 +5150,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6"/>
     </row>

--- a/shinyapp/data/mentalhealthres.xlsx
+++ b/shinyapp/data/mentalhealthres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E98A24E-CAE8-5044-97CE-EBCA74E8C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEDAAF2-2BA5-0E47-95FA-C4BBE425B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Family Engagement" sheetId="1" r:id="rId1"/>
@@ -4261,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E5B34C-2297-4E45-9112-F6D1152EA394}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/shinyapp/data/mentalhealthres.xlsx
+++ b/shinyapp/data/mentalhealthres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEDAAF2-2BA5-0E47-95FA-C4BBE425B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D5ACD-3B80-6240-950F-655D1122E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="14040" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="27820" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Family Engagement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="401">
   <si>
     <t>Resources</t>
   </si>
@@ -1245,6 +1245,30 @@
   </si>
   <si>
     <t>https://www.findhelp.org/by-your-side-ministries-inc--sterling-va--supportive-tools-for-advancement-and-restoration-%2528star%2529/5123958760275968?postal=20163</t>
+  </si>
+  <si>
+    <t>Website2</t>
+  </si>
+  <si>
+    <t>Latitude2</t>
+  </si>
+  <si>
+    <t>Longitude2</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>Hours2</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Resources2</t>
   </si>
 </sst>
 </file>
@@ -4262,7 +4286,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4277,31 +4301,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>395</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4793,7 +4817,7 @@
       <c r="H18" t="s">
         <v>324</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4917,6 +4941,7 @@
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{C7E84F64-66E8-4D59-9ABA-A47A301B4FF5}"/>
     <hyperlink ref="E20" r:id="rId2" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{1E77340E-E64C-44CA-B98B-B05D67E42FBF}"/>
+    <hyperlink ref="I18" r:id="rId3" xr:uid="{79C80D54-72F7-5348-9991-1450FD2832EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5544,6 +5569,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c258f84c8883adaba6693857568905">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b6e5ccfb7e00e6117bade8c94a8a5e1" ns2:_="" ns3:_="">
     <xsd:import namespace="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
@@ -5780,27 +5825,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEA05EE-7518-4953-B638-950A17C44AF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3976ED70-E3F6-4CCF-93B3-12ADB5FE7646}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80156F73-2072-4284-A82B-65A58890463A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5817,23 +5861,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3976ED70-E3F6-4CCF-93B3-12ADB5FE7646}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
-    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEA05EE-7518-4953-B638-950A17C44AF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>